--- a/3_Component_Results/TRDBAL/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -440,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,296 +474,320 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.04382924685989412</v>
+        <v>0.168549046501717</v>
       </c>
       <c r="C2">
-        <v>-0.2567916280423663</v>
+        <v>-0.04441333468075517</v>
       </c>
       <c r="D2">
-        <v>-0.9695897948106171</v>
+        <v>-0.7572115014490061</v>
       </c>
       <c r="E2">
-        <v>-0.6539691850599821</v>
+        <v>-0.441590891698371</v>
       </c>
       <c r="F2">
-        <v>-0.1695819242435047</v>
+        <v>0.04279636911810641</v>
       </c>
       <c r="G2">
-        <v>-0.1431178958177133</v>
+        <v>0.06926039754389782</v>
       </c>
       <c r="H2">
-        <v>-0.4032877645220901</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>-0.190909471160479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2908354258297211</v>
+        <v>-0.148691993218036</v>
       </c>
       <c r="C3">
-        <v>-1.003633592597972</v>
+        <v>-0.8614901599862869</v>
       </c>
       <c r="D3">
-        <v>-0.6880129828473369</v>
+        <v>-0.5458695502356519</v>
       </c>
       <c r="E3">
-        <v>-0.2036257220308595</v>
+        <v>-0.06148228941917439</v>
       </c>
       <c r="F3">
-        <v>-0.1771616936050681</v>
+        <v>-0.03501826099338298</v>
       </c>
       <c r="G3">
-        <v>-0.4373315623094449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>-0.2951881296977598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.9518921187437208</v>
+        <v>-0.7001939218680397</v>
       </c>
       <c r="C4">
-        <v>-0.6362715089930857</v>
+        <v>-0.3845733121174047</v>
       </c>
       <c r="D4">
-        <v>-0.1518842481766083</v>
+        <v>0.09981394869907274</v>
       </c>
       <c r="E4">
-        <v>-0.1254202197508169</v>
+        <v>0.1262779771248642</v>
       </c>
       <c r="F4">
-        <v>-0.3855900884551937</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>-0.1338918915795126</v>
+      </c>
+      <c r="G4">
+        <v>0.067006525927944</v>
+      </c>
+      <c r="H4">
+        <v>-0.3988798524297023</v>
+      </c>
+      <c r="I4">
+        <v>-0.006388367470709932</v>
+      </c>
+      <c r="J4">
+        <v>-0.05594074298689113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.0275032750829507</v>
+        <v>-0.0532934954405796</v>
       </c>
       <c r="C5">
-        <v>0.4568839857335267</v>
+        <v>0.4310937653758978</v>
       </c>
       <c r="D5">
-        <v>0.4833480141593182</v>
+        <v>0.4575577938016893</v>
       </c>
       <c r="E5">
-        <v>0.2231781454549413</v>
+        <v>0.1973879250973124</v>
       </c>
       <c r="F5">
-        <v>0.424076562962398</v>
+        <v>0.3982863426047691</v>
       </c>
       <c r="G5">
-        <v>-0.04180981539524825</v>
+        <v>-0.06760003575287715</v>
       </c>
       <c r="H5">
-        <v>0.350681669563744</v>
+        <v>0.3248914492061151</v>
       </c>
       <c r="I5">
-        <v>0.3011292940475628</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.2753390736899339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.2910499338556751</v>
+        <v>0.05953170440083436</v>
       </c>
       <c r="C6">
-        <v>0.3175139622814665</v>
+        <v>0.08599573282662576</v>
       </c>
       <c r="D6">
-        <v>0.05734409357708969</v>
+        <v>-0.174174135877751</v>
       </c>
       <c r="E6">
-        <v>0.2582425110845463</v>
+        <v>0.02672428162970562</v>
       </c>
       <c r="F6">
-        <v>-0.2076438672730999</v>
+        <v>-0.4391620967279406</v>
       </c>
       <c r="G6">
-        <v>0.1848476176858924</v>
+        <v>-0.04667061176894832</v>
       </c>
       <c r="H6">
-        <v>0.1352952421697112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>-0.09622298728512951</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.2628909074619469</v>
+        <v>0.027557006744978</v>
       </c>
       <c r="C7">
-        <v>0.002721038757570099</v>
+        <v>-0.2326128619593988</v>
       </c>
       <c r="D7">
-        <v>0.2036194562650268</v>
+        <v>-0.03171444445194214</v>
       </c>
       <c r="E7">
-        <v>-0.2622669220926195</v>
+        <v>-0.4976008228095884</v>
       </c>
       <c r="F7">
-        <v>0.1302245628663728</v>
+        <v>-0.1051093378505961</v>
       </c>
       <c r="G7">
-        <v>0.08067218735019163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>-0.1546617133667773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.1308669852586772</v>
+        <v>-0.185259264801978</v>
       </c>
       <c r="C8">
-        <v>0.07003143224877942</v>
+        <v>0.01563915270547871</v>
       </c>
       <c r="D8">
-        <v>-0.3958549461088668</v>
+        <v>-0.4502472256521675</v>
       </c>
       <c r="E8">
-        <v>-0.003363461149874517</v>
+        <v>-0.05775574069317523</v>
       </c>
       <c r="F8">
-        <v>-0.0529158366660557</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-0.1073081162093564</v>
+      </c>
+      <c r="G8">
+        <v>0.2097631713009834</v>
+      </c>
+      <c r="H8">
+        <v>0.08508340067688215</v>
+      </c>
+      <c r="I8">
+        <v>0.04125054597109605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.1465864410110592</v>
+        <v>0.1016561395759164</v>
       </c>
       <c r="C9">
-        <v>-0.3192999373465871</v>
+        <v>-0.3642302387817298</v>
       </c>
       <c r="D9">
-        <v>0.07319154761240525</v>
+        <v>0.02826124617726248</v>
       </c>
       <c r="E9">
-        <v>0.02363917209622406</v>
+        <v>-0.02129112933891871</v>
       </c>
       <c r="F9">
-        <v>0.3407104596065638</v>
+        <v>0.2957801581714211</v>
       </c>
       <c r="G9">
-        <v>0.2160306889824626</v>
+        <v>0.1711003875473198</v>
       </c>
       <c r="H9">
-        <v>0.1721978342766765</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.1272675328415337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.3762658585874135</v>
+        <v>-0.3543200805324755</v>
       </c>
       <c r="C10">
-        <v>0.0162256263715788</v>
+        <v>0.0381714044265168</v>
       </c>
       <c r="D10">
-        <v>-0.0333267491446024</v>
+        <v>-0.01138097108966439</v>
       </c>
       <c r="E10">
-        <v>0.2837445383657374</v>
+        <v>0.3056903164206754</v>
       </c>
       <c r="F10">
-        <v>0.1590647677416362</v>
+        <v>0.1810105457965742</v>
       </c>
       <c r="G10">
-        <v>0.1152319130358501</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.1371776910907881</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.06396059398429099</v>
+        <v>0.1247600422622814</v>
       </c>
       <c r="C11">
-        <v>0.01440821846810981</v>
+        <v>0.07520766674610024</v>
       </c>
       <c r="D11">
-        <v>0.3314795059784496</v>
+        <v>0.39227895425644</v>
       </c>
       <c r="E11">
-        <v>0.2067997353543484</v>
+        <v>0.2675991836323388</v>
       </c>
       <c r="F11">
-        <v>0.1629668806485623</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.2237663289265527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.05332505928616825</v>
+        <v>0.015958518250201</v>
       </c>
       <c r="C12">
-        <v>0.370396346796508</v>
+        <v>0.3330298057605408</v>
       </c>
       <c r="D12">
-        <v>0.2457165761724068</v>
+        <v>0.2083500351364396</v>
       </c>
       <c r="E12">
-        <v>0.2018837214666207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.1645171804306535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.3985470837034655</v>
+        <v>0.2879850433121589</v>
       </c>
       <c r="C13">
-        <v>0.2738673130793643</v>
+        <v>0.1633052726880577</v>
       </c>
       <c r="D13">
-        <v>0.2300344583735782</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.1194724179822716</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.2490146831170405</v>
+        <v>0.0315981439370237</v>
       </c>
       <c r="C14">
-        <v>0.2051818284112544</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>-0.0122347107687624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>0.1215173588345157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.05023326629364772</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/TRDBAL/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -41,6 +41,120 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -443,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,317 +591,1663 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>0.42</v>
+      </c>
+      <c r="C2">
+        <v>-0.28</v>
+      </c>
+      <c r="D2">
+        <v>1.92</v>
+      </c>
+      <c r="E2">
+        <v>2.22</v>
+      </c>
+      <c r="F2">
+        <v>2.388616218514021</v>
+      </c>
+      <c r="G2">
+        <v>-1.68</v>
+      </c>
+      <c r="H2">
+        <v>0.72</v>
+      </c>
+      <c r="I2">
+        <v>-1.38</v>
+      </c>
+      <c r="J2">
+        <v>1.32</v>
+      </c>
+      <c r="K2">
+        <v>-0.5800000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>2.02</v>
+      </c>
+      <c r="C3">
+        <v>2.32</v>
+      </c>
+      <c r="D3">
+        <v>2.488616218514021</v>
+      </c>
+      <c r="E3">
+        <v>-1.58</v>
+      </c>
+      <c r="F3">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="G3">
+        <v>-1.28</v>
+      </c>
+      <c r="H3">
+        <v>1.42</v>
+      </c>
+      <c r="I3">
+        <v>-0.48</v>
+      </c>
+      <c r="J3">
+        <v>0.05037784237159432</v>
+      </c>
+      <c r="K3">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>2.328616218514021</v>
+      </c>
+      <c r="C4">
+        <v>-1.74</v>
+      </c>
+      <c r="D4">
+        <v>0.66</v>
+      </c>
+      <c r="E4">
+        <v>-1.44</v>
+      </c>
+      <c r="F4">
+        <v>1.26</v>
+      </c>
+      <c r="G4">
+        <v>-0.64</v>
+      </c>
+      <c r="H4">
+        <v>-0.1096221576284057</v>
+      </c>
+      <c r="I4">
+        <v>-0.34</v>
+      </c>
+      <c r="J4">
+        <v>-0.34</v>
+      </c>
+      <c r="K4">
+        <v>0.0599999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0.1931383781485979</v>
+      </c>
+      <c r="C5">
+        <v>-1.906861621851402</v>
+      </c>
+      <c r="D5">
+        <v>0.793138378148598</v>
+      </c>
+      <c r="E5">
+        <v>-1.106861621851402</v>
+      </c>
+      <c r="F5">
+        <v>-0.5764837794798078</v>
+      </c>
+      <c r="G5">
+        <v>-0.8068616218514021</v>
+      </c>
+      <c r="H5">
+        <v>-0.8068616218514021</v>
+      </c>
+      <c r="I5">
+        <v>-0.4068616218514022</v>
+      </c>
+      <c r="J5">
+        <v>-0.406861621851402</v>
+      </c>
+      <c r="K5">
+        <v>0.09313837814859793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0.8500000000000002</v>
+      </c>
+      <c r="C6">
+        <v>-1.05</v>
+      </c>
+      <c r="D6">
+        <v>-0.5196221576284056</v>
+      </c>
+      <c r="E6">
+        <v>-0.7499999999999999</v>
+      </c>
+      <c r="F6">
+        <v>-0.7499999999999999</v>
+      </c>
+      <c r="G6">
+        <v>-0.35</v>
+      </c>
+      <c r="H6">
+        <v>-0.3499999999999998</v>
+      </c>
+      <c r="I6">
+        <v>0.1500000000000001</v>
+      </c>
+      <c r="J6">
+        <v>-1.15</v>
+      </c>
+      <c r="K6">
+        <v>-0.9499999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>-0.5796221576284057</v>
+      </c>
+      <c r="C7">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="D7">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="E7">
+        <v>-0.4100000000000001</v>
+      </c>
+      <c r="F7">
+        <v>-0.4099999999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.09000000000000002</v>
+      </c>
+      <c r="H7">
+        <v>-1.21</v>
+      </c>
+      <c r="I7">
+        <v>-1.01</v>
+      </c>
+      <c r="J7">
+        <v>-0.61</v>
+      </c>
+      <c r="K7">
+        <v>0.3900000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-0.7130377842371595</v>
+      </c>
+      <c r="C8">
+        <v>-0.3130377842371596</v>
+      </c>
+      <c r="D8">
+        <v>-0.3130377842371593</v>
+      </c>
+      <c r="E8">
+        <v>0.1869622157628405</v>
+      </c>
+      <c r="F8">
+        <v>-1.113037784237159</v>
+      </c>
+      <c r="G8">
+        <v>-0.9130377842371594</v>
+      </c>
+      <c r="H8">
+        <v>-0.5130377842371595</v>
+      </c>
+      <c r="I8">
+        <v>0.4869622157628406</v>
+      </c>
+      <c r="J8">
+        <v>-0.3130377842371594</v>
+      </c>
+      <c r="K8">
+        <v>-0.5130377842371594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>-0.1399999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.36</v>
+      </c>
+      <c r="D9">
+        <v>-0.9400000000000001</v>
+      </c>
+      <c r="E9">
+        <v>-0.74</v>
+      </c>
+      <c r="F9">
+        <v>-0.34</v>
+      </c>
+      <c r="G9">
+        <v>0.66</v>
+      </c>
+      <c r="H9">
+        <v>-0.14</v>
+      </c>
+      <c r="I9">
+        <v>-0.3399999999999999</v>
+      </c>
+      <c r="J9">
+        <v>0.36</v>
+      </c>
+      <c r="K9">
+        <v>-0.7400000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>-0.51</v>
+      </c>
+      <c r="C10">
+        <v>-0.3099999999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.09000000000000002</v>
+      </c>
+      <c r="E10">
+        <v>1.09</v>
+      </c>
+      <c r="F10">
+        <v>0.29</v>
+      </c>
+      <c r="G10">
+        <v>0.09000000000000014</v>
+      </c>
+      <c r="H10">
+        <v>0.79</v>
+      </c>
+      <c r="I10">
+        <v>-0.3100000000000001</v>
+      </c>
+      <c r="J10">
+        <v>1.29</v>
+      </c>
+      <c r="K10">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>-0.01999999999999996</v>
+      </c>
+      <c r="C11">
+        <v>0.9800000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.18</v>
+      </c>
+      <c r="E11">
+        <v>-0.01999999999999985</v>
+      </c>
+      <c r="F11">
+        <v>0.68</v>
+      </c>
+      <c r="G11">
+        <v>-0.42</v>
+      </c>
+      <c r="H11">
+        <v>1.18</v>
+      </c>
+      <c r="I11">
+        <v>0.28</v>
+      </c>
+      <c r="J11">
+        <v>0.07999999999999993</v>
+      </c>
+      <c r="K11">
+        <v>0.5800000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0.2099999999999999</v>
+      </c>
+      <c r="C12">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.71</v>
+      </c>
+      <c r="E12">
+        <v>-0.3900000000000002</v>
+      </c>
+      <c r="F12">
+        <v>1.21</v>
+      </c>
+      <c r="G12">
+        <v>0.3099999999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.1099999999999998</v>
+      </c>
+      <c r="I12">
+        <v>0.6099999999999999</v>
+      </c>
+      <c r="J12">
+        <v>0.5099999999999999</v>
+      </c>
+      <c r="K12">
+        <v>-0.2900000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>0.52</v>
+      </c>
+      <c r="C13">
+        <v>-0.5800000000000001</v>
+      </c>
+      <c r="D13">
+        <v>1.02</v>
+      </c>
+      <c r="E13">
+        <v>0.12</v>
+      </c>
+      <c r="F13">
+        <v>-0.0800000000000001</v>
+      </c>
+      <c r="G13">
+        <v>0.42</v>
+      </c>
+      <c r="H13">
+        <v>0.32</v>
+      </c>
+      <c r="I13">
+        <v>-0.48</v>
+      </c>
+      <c r="J13">
+        <v>0.52</v>
+      </c>
+      <c r="K13">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>0.93</v>
+      </c>
+      <c r="C14">
+        <v>0.02999999999999999</v>
+      </c>
+      <c r="D14">
+        <v>-0.1700000000000001</v>
+      </c>
+      <c r="E14">
+        <v>0.33</v>
+      </c>
+      <c r="F14">
+        <v>0.23</v>
+      </c>
+      <c r="G14">
+        <v>-0.57</v>
+      </c>
+      <c r="H14">
+        <v>0.43</v>
+      </c>
+      <c r="I14">
+        <v>0.53</v>
+      </c>
+      <c r="J14">
+        <v>0.13</v>
+      </c>
+      <c r="K14">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>-0.1500000000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.35</v>
+      </c>
+      <c r="D15">
+        <v>0.2500000000000001</v>
+      </c>
+      <c r="E15">
+        <v>-0.5499999999999999</v>
+      </c>
+      <c r="F15">
+        <v>0.4500000000000001</v>
+      </c>
+      <c r="G15">
+        <v>0.55</v>
+      </c>
+      <c r="H15">
+        <v>0.15</v>
+      </c>
+      <c r="I15">
+        <v>-0.45</v>
+      </c>
+      <c r="J15">
+        <v>0.35</v>
+      </c>
+      <c r="K15">
+        <v>0.2500000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>0.22</v>
+      </c>
+      <c r="C16">
+        <v>-0.58</v>
+      </c>
+      <c r="D16">
+        <v>0.42</v>
+      </c>
+      <c r="E16">
+        <v>0.52</v>
+      </c>
+      <c r="F16">
+        <v>0.12</v>
+      </c>
+      <c r="G16">
+        <v>-0.48</v>
+      </c>
+      <c r="H16">
+        <v>0.32</v>
+      </c>
+      <c r="I16">
+        <v>0.22</v>
+      </c>
+      <c r="J16">
+        <v>-0.38</v>
+      </c>
+      <c r="K16">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>0.29</v>
+      </c>
+      <c r="C17">
+        <v>0.39</v>
+      </c>
+      <c r="D17">
+        <v>-0.009999999999999995</v>
+      </c>
+      <c r="E17">
+        <v>-0.61</v>
+      </c>
+      <c r="F17">
+        <v>0.19</v>
+      </c>
+      <c r="G17">
+        <v>0.09000000000000001</v>
+      </c>
+      <c r="H17">
+        <v>-0.51</v>
+      </c>
+      <c r="I17">
+        <v>0.29</v>
+      </c>
+      <c r="J17">
+        <v>-0.51</v>
+      </c>
+      <c r="K17">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0.11</v>
+      </c>
+      <c r="C18">
+        <v>-0.49</v>
+      </c>
+      <c r="D18">
+        <v>0.31</v>
+      </c>
+      <c r="E18">
+        <v>0.21</v>
+      </c>
+      <c r="F18">
+        <v>-0.39</v>
+      </c>
+      <c r="G18">
+        <v>0.41</v>
+      </c>
+      <c r="H18">
+        <v>-0.39</v>
+      </c>
+      <c r="I18">
+        <v>-0.49</v>
+      </c>
+      <c r="J18">
+        <v>0.11</v>
+      </c>
+      <c r="K18">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0.31</v>
+      </c>
+      <c r="C19">
+        <v>0.21</v>
+      </c>
+      <c r="D19">
+        <v>-0.39</v>
+      </c>
+      <c r="E19">
+        <v>0.41</v>
+      </c>
+      <c r="F19">
+        <v>-0.39</v>
+      </c>
+      <c r="G19">
+        <v>-0.49</v>
+      </c>
+      <c r="H19">
+        <v>0.11</v>
+      </c>
+      <c r="I19">
+        <v>0.41</v>
+      </c>
+      <c r="J19">
+        <v>1.01</v>
+      </c>
+      <c r="K19">
+        <v>0.009999999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-0.43</v>
+      </c>
+      <c r="C20">
+        <v>0.37</v>
+      </c>
+      <c r="D20">
+        <v>-0.43</v>
+      </c>
+      <c r="E20">
+        <v>-0.53</v>
+      </c>
+      <c r="F20">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G20">
+        <v>0.37</v>
+      </c>
+      <c r="H20">
+        <v>0.97</v>
+      </c>
+      <c r="I20">
+        <v>-0.03</v>
+      </c>
+      <c r="J20">
+        <v>-0.23</v>
+      </c>
+      <c r="K20">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>-0.44</v>
+      </c>
+      <c r="C21">
+        <v>-0.54</v>
+      </c>
+      <c r="D21">
+        <v>0.06</v>
+      </c>
+      <c r="E21">
+        <v>0.36</v>
+      </c>
+      <c r="F21">
+        <v>0.96</v>
+      </c>
+      <c r="G21">
+        <v>-0.04</v>
+      </c>
+      <c r="H21">
+        <v>-0.24</v>
+      </c>
+      <c r="I21">
+        <v>0.46</v>
+      </c>
+      <c r="J21">
+        <v>-0.54</v>
+      </c>
+      <c r="K21">
+        <v>0.5599999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>0.11</v>
+      </c>
+      <c r="C22">
+        <v>0.41</v>
+      </c>
+      <c r="D22">
+        <v>1.01</v>
+      </c>
+      <c r="E22">
+        <v>0.009999999999999992</v>
+      </c>
+      <c r="F22">
+        <v>-0.19</v>
+      </c>
+      <c r="G22">
+        <v>0.51</v>
+      </c>
+      <c r="H22">
+        <v>-0.49</v>
+      </c>
+      <c r="I22">
+        <v>0.61</v>
+      </c>
+      <c r="J22">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="K22">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>0.39</v>
+      </c>
+      <c r="C23">
+        <v>0.99</v>
+      </c>
+      <c r="D23">
+        <v>-0.009999999999999998</v>
+      </c>
+      <c r="E23">
+        <v>-0.21</v>
+      </c>
+      <c r="F23">
+        <v>0.49</v>
+      </c>
+      <c r="G23">
+        <v>-0.51</v>
+      </c>
+      <c r="H23">
+        <v>0.59</v>
+      </c>
+      <c r="I23">
+        <v>0.79</v>
+      </c>
+      <c r="J23">
+        <v>2.79</v>
+      </c>
+      <c r="K23">
+        <v>-2.04040224812923</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>1.03</v>
+      </c>
+      <c r="C24">
+        <v>0.02999999999999999</v>
+      </c>
+      <c r="D24">
+        <v>-0.17</v>
+      </c>
+      <c r="E24">
+        <v>0.53</v>
+      </c>
+      <c r="F24">
+        <v>-0.47</v>
+      </c>
+      <c r="G24">
+        <v>0.63</v>
+      </c>
+      <c r="H24">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="I24">
+        <v>2.83</v>
+      </c>
+      <c r="J24">
+        <v>-2.00040224812923</v>
+      </c>
+      <c r="K24">
+        <v>-0.4039050167294337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>0.03999999999999999</v>
+      </c>
+      <c r="C25">
+        <v>-0.16</v>
+      </c>
+      <c r="D25">
+        <v>0.54</v>
+      </c>
+      <c r="E25">
+        <v>-0.46</v>
+      </c>
+      <c r="F25">
+        <v>0.64</v>
+      </c>
+      <c r="G25">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="H25">
+        <v>2.84</v>
+      </c>
+      <c r="I25">
+        <v>-1.99040224812923</v>
+      </c>
+      <c r="J25">
+        <v>-0.3939050167294337</v>
+      </c>
+      <c r="K25">
+        <v>-1.157090680270919</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>-0.24</v>
+      </c>
+      <c r="C26">
+        <v>0.46</v>
+      </c>
+      <c r="D26">
+        <v>-0.54</v>
+      </c>
+      <c r="E26">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="F26">
+        <v>0.76</v>
+      </c>
+      <c r="G26">
+        <v>2.76</v>
+      </c>
+      <c r="H26">
+        <v>-2.07040224812923</v>
+      </c>
+      <c r="I26">
+        <v>-0.4739050167294337</v>
+      </c>
+      <c r="J26">
+        <v>-1.237090680270919</v>
+      </c>
+      <c r="K26">
+        <v>0.6041697788099751</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>0.43</v>
+      </c>
+      <c r="C27">
+        <v>-0.5700000000000001</v>
+      </c>
+      <c r="D27">
+        <v>0.5299999999999999</v>
+      </c>
+      <c r="E27">
+        <v>0.73</v>
+      </c>
+      <c r="F27">
+        <v>2.73</v>
+      </c>
+      <c r="G27">
+        <v>-2.10040224812923</v>
+      </c>
+      <c r="H27">
+        <v>-0.5039050167294338</v>
+      </c>
+      <c r="I27">
+        <v>-1.267090680270919</v>
+      </c>
+      <c r="J27">
+        <v>0.5741697788099751</v>
+      </c>
+      <c r="K27">
+        <v>-0.5601411037136304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>-0.51</v>
+      </c>
+      <c r="C28">
+        <v>0.59</v>
+      </c>
+      <c r="D28">
+        <v>0.79</v>
+      </c>
+      <c r="E28">
+        <v>2.79</v>
+      </c>
+      <c r="F28">
+        <v>-2.04040224812923</v>
+      </c>
+      <c r="G28">
+        <v>-0.4439050167294337</v>
+      </c>
+      <c r="H28">
+        <v>-1.207090680270919</v>
+      </c>
+      <c r="I28">
+        <v>0.6341697788099752</v>
+      </c>
+      <c r="J28">
+        <v>-0.5001411037136303</v>
+      </c>
+      <c r="K28">
+        <v>0.08098140646410987</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>0.57</v>
+      </c>
+      <c r="C29">
+        <v>0.77</v>
+      </c>
+      <c r="D29">
+        <v>2.77</v>
+      </c>
+      <c r="E29">
+        <v>-2.06040224812923</v>
+      </c>
+      <c r="F29">
+        <v>-0.4639050167294337</v>
+      </c>
+      <c r="G29">
+        <v>-1.227090680270919</v>
+      </c>
+      <c r="H29">
+        <v>0.6141697788099751</v>
+      </c>
+      <c r="I29">
+        <v>-0.5201411037136303</v>
+      </c>
+      <c r="J29">
+        <v>0.06098140646410989</v>
+      </c>
+      <c r="K29">
+        <v>0.3652916234765647</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>0.75</v>
+      </c>
+      <c r="C30">
+        <v>2.75</v>
+      </c>
+      <c r="D30">
+        <v>-2.08040224812923</v>
+      </c>
+      <c r="E30">
+        <v>-0.4839050167294337</v>
+      </c>
+      <c r="F30">
+        <v>-1.247090680270919</v>
+      </c>
+      <c r="G30">
+        <v>0.5941697788099751</v>
+      </c>
+      <c r="H30">
+        <v>-0.5401411037136303</v>
+      </c>
+      <c r="I30">
+        <v>0.04098140646410987</v>
+      </c>
+      <c r="J30">
+        <v>0.3452916234765647</v>
+      </c>
+      <c r="K30">
+        <v>0.1880782088493735</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>2.76</v>
+      </c>
+      <c r="C31">
+        <v>-2.07040224812923</v>
+      </c>
+      <c r="D31">
+        <v>-0.4739050167294337</v>
+      </c>
+      <c r="E31">
+        <v>-1.237090680270919</v>
+      </c>
+      <c r="F31">
+        <v>0.6041697788099751</v>
+      </c>
+      <c r="G31">
+        <v>-0.5301411037136303</v>
+      </c>
+      <c r="H31">
+        <v>0.05098140646410989</v>
+      </c>
+      <c r="I31">
+        <v>0.3552916234765647</v>
+      </c>
+      <c r="J31">
+        <v>0.1980782088493735</v>
+      </c>
+      <c r="K31">
+        <v>-0.01488417233309867</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>-2.18040224812923</v>
+      </c>
+      <c r="C32">
+        <v>-0.5839050167294337</v>
+      </c>
+      <c r="D32">
+        <v>-1.347090680270919</v>
+      </c>
+      <c r="E32">
+        <v>0.4941697788099751</v>
+      </c>
+      <c r="F32">
+        <v>-0.6401411037136303</v>
+      </c>
+      <c r="G32">
+        <v>-0.05901859353589012</v>
+      </c>
+      <c r="H32">
+        <v>0.2452916234765647</v>
+      </c>
+      <c r="I32">
+        <v>0.08807820884937351</v>
+      </c>
+      <c r="J32">
+        <v>-0.1248841723330987</v>
+      </c>
+      <c r="K32">
+        <v>-0.8376823391013496</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>-0.7108647919165108</v>
+      </c>
+      <c r="C33">
+        <v>-1.474050455457996</v>
+      </c>
+      <c r="D33">
+        <v>0.3672100036228982</v>
+      </c>
+      <c r="E33">
+        <v>-0.7671008789007072</v>
+      </c>
+      <c r="F33">
+        <v>-0.1859783687229671</v>
+      </c>
+      <c r="G33">
+        <v>0.1183318482894877</v>
+      </c>
+      <c r="H33">
+        <v>-0.03888156633770348</v>
+      </c>
+      <c r="I33">
+        <v>-0.2518439475201757</v>
+      </c>
+      <c r="J33">
+        <v>-0.9646421142884265</v>
+      </c>
+      <c r="K33">
+        <v>-0.6490215045377915</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>-1.213700178597976</v>
+      </c>
+      <c r="C34">
+        <v>0.6275602804829186</v>
+      </c>
+      <c r="D34">
+        <v>-0.5067506020406869</v>
+      </c>
+      <c r="E34">
+        <v>0.07437190813705324</v>
+      </c>
+      <c r="F34">
+        <v>0.3786821251495081</v>
+      </c>
+      <c r="G34">
+        <v>0.2214687105223169</v>
+      </c>
+      <c r="H34">
+        <v>0.00850632933984468</v>
+      </c>
+      <c r="I34">
+        <v>-0.7042918374284062</v>
+      </c>
+      <c r="J34">
+        <v>-0.3886712276777712</v>
+      </c>
+      <c r="K34">
+        <v>0.09571603313870627</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>0.843878846837067</v>
+      </c>
+      <c r="C35">
+        <v>-0.2904320356865384</v>
+      </c>
+      <c r="D35">
+        <v>0.2906904744912018</v>
+      </c>
+      <c r="E35">
+        <v>0.5950006915036566</v>
+      </c>
+      <c r="F35">
+        <v>0.4377872768764654</v>
+      </c>
+      <c r="G35">
+        <v>0.2248248956939932</v>
+      </c>
+      <c r="H35">
+        <v>-0.4879732710742577</v>
+      </c>
+      <c r="I35">
+        <v>-0.1723526613236226</v>
+      </c>
+      <c r="J35">
+        <v>0.3120345994928548</v>
+      </c>
+      <c r="K35">
+        <v>0.3384986279186462</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>-0.5045580815946278</v>
+      </c>
+      <c r="C36">
+        <v>0.07656442858311237</v>
+      </c>
+      <c r="D36">
+        <v>0.3808746455955672</v>
+      </c>
+      <c r="E36">
+        <v>0.223661230968376</v>
+      </c>
+      <c r="F36">
+        <v>0.01069884978590381</v>
+      </c>
+      <c r="G36">
+        <v>-0.7020993169823471</v>
+      </c>
+      <c r="H36">
+        <v>-0.386478707231712</v>
+      </c>
+      <c r="I36">
+        <v>0.0979085535847654</v>
+      </c>
+      <c r="J36">
+        <v>0.1243725820105568</v>
+      </c>
+      <c r="K36">
+        <v>-0.13579728669382</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>0.06999551683547289</v>
+      </c>
+      <c r="C37">
+        <v>0.3743057338479278</v>
+      </c>
+      <c r="D37">
+        <v>0.2170923192207365</v>
+      </c>
+      <c r="E37">
+        <v>0.004129938038264339</v>
+      </c>
+      <c r="F37">
+        <v>-0.7086682287299866</v>
+      </c>
+      <c r="G37">
+        <v>-0.3930476189793515</v>
+      </c>
+      <c r="H37">
+        <v>0.09133964183712592</v>
+      </c>
+      <c r="I37">
+        <v>0.1178036702629173</v>
+      </c>
+      <c r="J37">
+        <v>-0.1423661984414595</v>
+      </c>
+      <c r="K37">
+        <v>0.05853221906599718</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>0.3561934828301537</v>
+      </c>
+      <c r="C38">
+        <v>0.1989800682029625</v>
+      </c>
+      <c r="D38">
+        <v>-0.01398231297950968</v>
+      </c>
+      <c r="E38">
+        <v>-0.7267804797477606</v>
+      </c>
+      <c r="F38">
+        <v>-0.4111598699971255</v>
+      </c>
+      <c r="G38">
+        <v>0.07322739081935191</v>
+      </c>
+      <c r="H38">
+        <v>0.09969141924514331</v>
+      </c>
+      <c r="I38">
+        <v>-0.1604784494592335</v>
+      </c>
+      <c r="J38">
+        <v>0.04041996804822316</v>
+      </c>
+      <c r="K38">
+        <v>-0.4254664103094231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
         <v>0.168549046501717</v>
       </c>
-      <c r="C2">
+      <c r="C39">
         <v>-0.04441333468075517</v>
       </c>
-      <c r="D2">
+      <c r="D39">
         <v>-0.7572115014490061</v>
       </c>
-      <c r="E2">
+      <c r="E39">
         <v>-0.441590891698371</v>
       </c>
-      <c r="F2">
+      <c r="F39">
         <v>0.04279636911810641</v>
       </c>
-      <c r="G2">
+      <c r="G39">
         <v>0.06926039754389782</v>
       </c>
-      <c r="H2">
+      <c r="H39">
         <v>-0.190909471160479</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
+      <c r="I39">
+        <v>0.009988946346977667</v>
+      </c>
+      <c r="J39">
+        <v>-0.4558974320106686</v>
+      </c>
+      <c r="K39">
+        <v>-0.06340594705167626</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
         <v>-0.148691993218036</v>
       </c>
-      <c r="C3">
+      <c r="C40">
         <v>-0.8614901599862869</v>
       </c>
-      <c r="D3">
+      <c r="D40">
         <v>-0.5458695502356519</v>
       </c>
-      <c r="E3">
+      <c r="E40">
         <v>-0.06148228941917439</v>
       </c>
-      <c r="F3">
+      <c r="F40">
         <v>-0.03501826099338298</v>
       </c>
-      <c r="G3">
+      <c r="G40">
         <v>-0.2951881296977598</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
+      <c r="H40">
+        <v>-0.09428971219030313</v>
+      </c>
+      <c r="I40">
+        <v>-0.5601760905479494</v>
+      </c>
+      <c r="J40">
+        <v>-0.1676846055889571</v>
+      </c>
+      <c r="K40">
+        <v>-0.2172369811051383</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
         <v>-0.7001939218680397</v>
       </c>
-      <c r="C4">
+      <c r="C41">
         <v>-0.3845733121174047</v>
       </c>
-      <c r="D4">
+      <c r="D41">
         <v>0.09981394869907274</v>
       </c>
-      <c r="E4">
+      <c r="E41">
         <v>0.1262779771248642</v>
       </c>
-      <c r="F4">
+      <c r="F41">
         <v>-0.1338918915795126</v>
       </c>
-      <c r="G4">
+      <c r="G41">
         <v>0.067006525927944</v>
       </c>
-      <c r="H4">
+      <c r="H41">
         <v>-0.3988798524297023</v>
       </c>
-      <c r="I4">
+      <c r="I41">
         <v>-0.006388367470709932</v>
       </c>
-      <c r="J4">
+      <c r="J41">
         <v>-0.05594074298689113</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
+      <c r="K41">
+        <v>0.2611305445234486</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
         <v>-0.0532934954405796</v>
       </c>
-      <c r="C5">
+      <c r="C42">
         <v>0.4310937653758978</v>
       </c>
-      <c r="D5">
+      <c r="D42">
         <v>0.4575577938016893</v>
       </c>
-      <c r="E5">
+      <c r="E42">
         <v>0.1973879250973124</v>
       </c>
-      <c r="F5">
+      <c r="F42">
         <v>0.3982863426047691</v>
       </c>
-      <c r="G5">
+      <c r="G42">
         <v>-0.06760003575287715</v>
       </c>
-      <c r="H5">
+      <c r="H42">
         <v>0.3248914492061151</v>
       </c>
-      <c r="I5">
+      <c r="I42">
         <v>0.2753390736899339</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
+      <c r="J42">
+        <v>0.5924103612002738</v>
+      </c>
+      <c r="K42">
+        <v>0.4677305905761725</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
         <v>0.05953170440083436</v>
       </c>
-      <c r="C6">
+      <c r="C43">
         <v>0.08599573282662576</v>
       </c>
-      <c r="D6">
+      <c r="D43">
         <v>-0.174174135877751</v>
       </c>
-      <c r="E6">
+      <c r="E43">
         <v>0.02672428162970562</v>
       </c>
-      <c r="F6">
+      <c r="F43">
         <v>-0.4391620967279406</v>
       </c>
-      <c r="G6">
+      <c r="G43">
         <v>-0.04667061176894832</v>
       </c>
-      <c r="H6">
+      <c r="H43">
         <v>-0.09622298728512951</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
+      <c r="I43">
+        <v>0.2208483002252103</v>
+      </c>
+      <c r="J43">
+        <v>0.09616852960110905</v>
+      </c>
+      <c r="K43">
+        <v>0.05233567489532296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
         <v>0.027557006744978</v>
       </c>
-      <c r="C7">
+      <c r="C44">
         <v>-0.2326128619593988</v>
       </c>
-      <c r="D7">
+      <c r="D44">
         <v>-0.03171444445194214</v>
       </c>
-      <c r="E7">
+      <c r="E44">
         <v>-0.4976008228095884</v>
       </c>
-      <c r="F7">
+      <c r="F44">
         <v>-0.1051093378505961</v>
       </c>
-      <c r="G7">
+      <c r="G44">
         <v>-0.1546617133667773</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
+      <c r="H44">
+        <v>0.1624095741435625</v>
+      </c>
+      <c r="I44">
+        <v>0.0377298035194613</v>
+      </c>
+      <c r="J44">
+        <v>-0.006103051186324801</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
         <v>-0.185259264801978</v>
       </c>
-      <c r="C8">
+      <c r="C45">
         <v>0.01563915270547871</v>
       </c>
-      <c r="D8">
+      <c r="D45">
         <v>-0.4502472256521675</v>
       </c>
-      <c r="E8">
+      <c r="E45">
         <v>-0.05775574069317523</v>
       </c>
-      <c r="F8">
+      <c r="F45">
         <v>-0.1073081162093564</v>
       </c>
-      <c r="G8">
+      <c r="G45">
         <v>0.2097631713009834</v>
       </c>
-      <c r="H8">
+      <c r="H45">
         <v>0.08508340067688215</v>
       </c>
-      <c r="I8">
+      <c r="I45">
         <v>0.04125054597109605</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
         <v>0.1016561395759164</v>
       </c>
-      <c r="C9">
+      <c r="C46">
         <v>-0.3642302387817298</v>
       </c>
-      <c r="D9">
+      <c r="D46">
         <v>0.02826124617726248</v>
       </c>
-      <c r="E9">
+      <c r="E46">
         <v>-0.02129112933891871</v>
       </c>
-      <c r="F9">
+      <c r="F46">
         <v>0.2957801581714211</v>
       </c>
-      <c r="G9">
+      <c r="G46">
         <v>0.1711003875473198</v>
       </c>
-      <c r="H9">
+      <c r="H46">
         <v>0.1272675328415337</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
         <v>-0.3543200805324755</v>
       </c>
-      <c r="C10">
+      <c r="C47">
         <v>0.0381714044265168</v>
       </c>
-      <c r="D10">
+      <c r="D47">
         <v>-0.01138097108966439</v>
       </c>
-      <c r="E10">
+      <c r="E47">
         <v>0.3056903164206754</v>
       </c>
-      <c r="F10">
+      <c r="F47">
         <v>0.1810105457965742</v>
       </c>
-      <c r="G10">
+      <c r="G47">
         <v>0.1371776910907881</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
         <v>0.1247600422622814</v>
       </c>
-      <c r="C11">
+      <c r="C48">
         <v>0.07520766674610024</v>
       </c>
-      <c r="D11">
+      <c r="D48">
         <v>0.39227895425644</v>
       </c>
-      <c r="E11">
+      <c r="E48">
         <v>0.2675991836323388</v>
       </c>
-      <c r="F11">
+      <c r="F48">
         <v>0.2237663289265527</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
         <v>0.015958518250201</v>
       </c>
-      <c r="C12">
+      <c r="C49">
         <v>0.3330298057605408</v>
       </c>
-      <c r="D12">
+      <c r="D49">
         <v>0.2083500351364396</v>
       </c>
-      <c r="E12">
+      <c r="E49">
         <v>0.1645171804306535</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
         <v>0.2879850433121589</v>
       </c>
-      <c r="C13">
+      <c r="C50">
         <v>0.1633052726880577</v>
       </c>
-      <c r="D13">
+      <c r="D50">
         <v>0.1194724179822716</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
         <v>0.0315981439370237</v>
       </c>
-      <c r="C14">
+      <c r="C51">
         <v>-0.0122347107687624</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
         <v>0.05023326629364772</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/TRDBAL/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -600,34 +600,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>-0.28</v>
+      </c>
+      <c r="C2">
         <v>0.42</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-0.28</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1.92</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2.22</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2.388616218514021</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-1.68</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.72</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-1.38</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1.32</v>
-      </c>
-      <c r="K2">
-        <v>-0.5800000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -635,34 +635,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>-0.18</v>
+      </c>
+      <c r="C3">
         <v>2.02</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2.32</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2.488616218514021</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-1.58</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.8200000000000001</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-1.28</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.42</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.48</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.05037784237159432</v>
-      </c>
-      <c r="K3">
-        <v>-0.18</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,34 +670,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>2.16</v>
+      </c>
+      <c r="C4">
         <v>2.328616218514021</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-1.74</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.66</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-1.44</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1.26</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-0.64</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-0.1096221576284057</v>
-      </c>
-      <c r="I4">
-        <v>-0.34</v>
       </c>
       <c r="J4">
         <v>-0.34</v>
       </c>
       <c r="K4">
-        <v>0.0599999999999999</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -705,34 +705,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>-2.206861621851402</v>
+      </c>
+      <c r="C5">
         <v>0.1931383781485979</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-1.906861621851402</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.793138378148598</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-1.106861621851402</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-0.5764837794798078</v>
-      </c>
-      <c r="G5">
-        <v>-0.8068616218514021</v>
       </c>
       <c r="H5">
         <v>-0.8068616218514021</v>
       </c>
       <c r="I5">
+        <v>-0.8068616218514021</v>
+      </c>
+      <c r="J5">
         <v>-0.4068616218514022</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-0.406861621851402</v>
-      </c>
-      <c r="K5">
-        <v>0.09313837814859793</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -740,34 +740,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>-1.85</v>
+      </c>
+      <c r="C6">
         <v>0.8500000000000002</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-1.05</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-0.5196221576284056</v>
-      </c>
-      <c r="E6">
-        <v>-0.7499999999999999</v>
       </c>
       <c r="F6">
         <v>-0.7499999999999999</v>
       </c>
       <c r="G6">
+        <v>-0.7499999999999999</v>
+      </c>
+      <c r="H6">
         <v>-0.35</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-0.3499999999999998</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.1500000000000001</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-1.15</v>
-      </c>
-      <c r="K6">
-        <v>-0.9499999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -775,34 +775,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-1.11</v>
+      </c>
+      <c r="C7">
         <v>-0.5796221576284057</v>
-      </c>
-      <c r="C7">
-        <v>-0.8100000000000001</v>
       </c>
       <c r="D7">
         <v>-0.8100000000000001</v>
       </c>
       <c r="E7">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="F7">
         <v>-0.4100000000000001</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-0.4099999999999999</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.09000000000000002</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-1.21</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-1.01</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-0.61</v>
-      </c>
-      <c r="K7">
-        <v>0.3900000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -813,31 +813,31 @@
         <v>-0.7130377842371595</v>
       </c>
       <c r="C8">
+        <v>-0.7130377842371595</v>
+      </c>
+      <c r="D8">
         <v>-0.3130377842371596</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-0.3130377842371593</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.1869622157628405</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-1.113037784237159</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.9130377842371594</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-0.5130377842371595</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.4869622157628406</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-0.3130377842371594</v>
-      </c>
-      <c r="K8">
-        <v>-0.5130377842371594</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -845,34 +845,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>-0.1400000000000001</v>
+      </c>
+      <c r="C9">
         <v>-0.1399999999999999</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.36</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-0.9400000000000001</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-0.74</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-0.34</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.66</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-0.14</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-0.3399999999999999</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.36</v>
-      </c>
-      <c r="K9">
-        <v>-0.7400000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -880,34 +880,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>0.79</v>
+      </c>
+      <c r="C10">
         <v>-0.51</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.3099999999999999</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.09000000000000002</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1.09</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.29</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.09000000000000014</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.79</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-0.3100000000000001</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1.29</v>
-      </c>
-      <c r="K10">
-        <v>0.39</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -915,34 +915,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>-0.4199999999999999</v>
+      </c>
+      <c r="C11">
         <v>-0.01999999999999996</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.9800000000000001</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.18</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-0.01999999999999985</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.68</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-0.42</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1.18</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.28</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.07999999999999993</v>
-      </c>
-      <c r="K11">
-        <v>0.5800000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -950,34 +950,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>1.01</v>
+      </c>
+      <c r="C12">
         <v>0.2099999999999999</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.01000000000000001</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.71</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-0.3900000000000002</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1.21</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.3099999999999999</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.1099999999999998</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.6099999999999999</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.5099999999999999</v>
-      </c>
-      <c r="K12">
-        <v>-0.2900000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -985,34 +985,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>-0.1799999999999999</v>
+      </c>
+      <c r="C13">
         <v>0.52</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-0.5800000000000001</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1.02</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.12</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-0.0800000000000001</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.42</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.32</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-0.48</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.52</v>
-      </c>
-      <c r="K13">
-        <v>0.62</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1020,34 +1020,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-0.67</v>
+      </c>
+      <c r="C14">
         <v>0.93</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.02999999999999999</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-0.1700000000000001</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.33</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.23</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-0.57</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.43</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.53</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.13</v>
-      </c>
-      <c r="K14">
-        <v>-0.47</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1055,34 +1055,34 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>0.05000000000000003</v>
+      </c>
+      <c r="C15">
         <v>-0.1500000000000001</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.35</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.2500000000000001</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-0.5499999999999999</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.4500000000000001</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.55</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.15</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-0.45</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.35</v>
-      </c>
-      <c r="K15">
-        <v>0.2500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1090,34 +1090,34 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>0.32</v>
+      </c>
+      <c r="C16">
         <v>0.22</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-0.58</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.42</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.52</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.12</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-0.48</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.32</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.22</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-0.38</v>
-      </c>
-      <c r="K16">
-        <v>0.42</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1125,34 +1125,34 @@
         <v>25</v>
       </c>
       <c r="B17">
+        <v>-0.71</v>
+      </c>
+      <c r="C17">
         <v>0.29</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.39</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-0.009999999999999995</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-0.61</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.19</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.09000000000000001</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-0.51</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.29</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-0.51</v>
-      </c>
-      <c r="K17">
-        <v>-0.61</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1160,34 +1160,34 @@
         <v>26</v>
       </c>
       <c r="B18">
+        <v>0.51</v>
+      </c>
+      <c r="C18">
         <v>0.11</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-0.49</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.31</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.21</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-0.39</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.41</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-0.39</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-0.49</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.11</v>
-      </c>
-      <c r="K18">
-        <v>0.41</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1195,34 +1195,34 @@
         <v>27</v>
       </c>
       <c r="B19">
+        <v>-0.49</v>
+      </c>
+      <c r="C19">
         <v>0.31</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.21</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-0.39</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.41</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-0.39</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-0.49</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.11</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.41</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1.01</v>
-      </c>
-      <c r="K19">
-        <v>0.009999999999999995</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1230,34 +1230,34 @@
         <v>28</v>
       </c>
       <c r="B20">
+        <v>0.17</v>
+      </c>
+      <c r="C20">
         <v>-0.43</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.37</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-0.43</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-0.53</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.07000000000000001</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.37</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.97</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-0.03</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-0.23</v>
-      </c>
-      <c r="K20">
-        <v>0.47</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1265,34 +1265,34 @@
         <v>29</v>
       </c>
       <c r="B21">
+        <v>0.36</v>
+      </c>
+      <c r="C21">
         <v>-0.44</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-0.54</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.06</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.36</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.96</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-0.04</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-0.24</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.46</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-0.54</v>
-      </c>
-      <c r="K21">
-        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1300,34 +1300,34 @@
         <v>30</v>
       </c>
       <c r="B22">
+        <v>-0.49</v>
+      </c>
+      <c r="C22">
         <v>0.11</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.41</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>1.01</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.009999999999999992</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-0.19</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.51</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-0.49</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.61</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.8100000000000001</v>
-      </c>
-      <c r="K22">
-        <v>2.81</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1335,34 +1335,34 @@
         <v>31</v>
       </c>
       <c r="B23">
+        <v>0.09000000000000001</v>
+      </c>
+      <c r="C23">
         <v>0.39</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.99</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>-0.009999999999999998</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-0.21</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.49</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>-0.51</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.59</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.79</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>2.79</v>
-      </c>
-      <c r="K23">
-        <v>-2.04040224812923</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1370,34 +1370,34 @@
         <v>32</v>
       </c>
       <c r="B24">
+        <v>0.43</v>
+      </c>
+      <c r="C24">
         <v>1.03</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.02999999999999999</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-0.17</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.53</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>-0.47</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.63</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.8300000000000001</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>2.83</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-2.00040224812923</v>
-      </c>
-      <c r="K24">
-        <v>-0.4039050167294337</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1405,34 +1405,34 @@
         <v>33</v>
       </c>
       <c r="B25">
+        <v>1.04</v>
+      </c>
+      <c r="C25">
         <v>0.03999999999999999</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-0.16</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.54</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-0.46</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.64</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>0.8400000000000001</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>2.84</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-1.99040224812923</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-0.3939050167294337</v>
-      </c>
-      <c r="K25">
-        <v>-1.157090680270919</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1440,34 +1440,34 @@
         <v>34</v>
       </c>
       <c r="B26">
+        <v>-0.03999999999999999</v>
+      </c>
+      <c r="C26">
         <v>-0.24</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.46</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>-0.54</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.5599999999999999</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.76</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>2.76</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-2.07040224812923</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-0.4739050167294337</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-1.237090680270919</v>
-      </c>
-      <c r="K26">
-        <v>0.6041697788099751</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1475,34 +1475,34 @@
         <v>35</v>
       </c>
       <c r="B27">
+        <v>-0.27</v>
+      </c>
+      <c r="C27">
         <v>0.43</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-0.5700000000000001</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.5299999999999999</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.73</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>2.73</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-2.10040224812923</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-0.5039050167294338</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-1.267090680270919</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>0.5741697788099751</v>
-      </c>
-      <c r="K27">
-        <v>-0.5601411037136304</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1510,34 +1510,34 @@
         <v>36</v>
       </c>
       <c r="B28">
+        <v>0.49</v>
+      </c>
+      <c r="C28">
         <v>-0.51</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.59</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.79</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>2.79</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-2.04040224812923</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-0.4439050167294337</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-1.207090680270919</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.6341697788099752</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-0.5001411037136303</v>
-      </c>
-      <c r="K28">
-        <v>0.08098140646410987</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1545,34 +1545,34 @@
         <v>37</v>
       </c>
       <c r="B29">
+        <v>-0.53</v>
+      </c>
+      <c r="C29">
         <v>0.57</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.77</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>2.77</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-2.06040224812923</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-0.4639050167294337</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-1.227090680270919</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0.6141697788099751</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-0.5201411037136303</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>0.06098140646410989</v>
-      </c>
-      <c r="K29">
-        <v>0.3652916234765647</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1580,34 +1580,34 @@
         <v>38</v>
       </c>
       <c r="B30">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="C30">
         <v>0.75</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>2.75</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-2.08040224812923</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-0.4839050167294337</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-1.247090680270919</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>0.5941697788099751</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-0.5401411037136303</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.04098140646410987</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>0.3452916234765647</v>
-      </c>
-      <c r="K30">
-        <v>0.1880782088493735</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1615,34 +1615,34 @@
         <v>39</v>
       </c>
       <c r="B31">
+        <v>0.76</v>
+      </c>
+      <c r="C31">
         <v>2.76</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-2.07040224812923</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-0.4739050167294337</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-1.237090680270919</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.6041697788099751</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-0.5301411037136303</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0.05098140646410989</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>0.3552916234765647</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>0.1980782088493735</v>
-      </c>
-      <c r="K31">
-        <v>-0.01488417233309867</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1650,34 +1650,34 @@
         <v>40</v>
       </c>
       <c r="B32">
+        <v>2.65</v>
+      </c>
+      <c r="C32">
         <v>-2.18040224812923</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-0.5839050167294337</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-1.347090680270919</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>0.4941697788099751</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-0.6401411037136303</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-0.05901859353589012</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>0.2452916234765647</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>0.08807820884937351</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-0.1248841723330987</v>
-      </c>
-      <c r="K32">
-        <v>-0.8376823391013496</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
+        <v>-2.307362023316307</v>
+      </c>
+      <c r="C33">
         <v>-0.7108647919165108</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>-1.474050455457996</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.3672100036228982</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>-0.7671008789007072</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-0.1859783687229671</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.1183318482894877</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-0.03888156633770348</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-0.2518439475201757</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>-0.9646421142884265</v>
-      </c>
-      <c r="K33">
-        <v>-0.6490215045377915</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
+        <v>-0.4505145150564904</v>
+      </c>
+      <c r="C34">
         <v>-1.213700178597976</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.6275602804829186</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>-0.5067506020406869</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.07437190813705324</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.3786821251495081</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.2214687105223169</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.00850632933984468</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>-0.7042918374284062</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-0.3886712276777712</v>
-      </c>
-      <c r="K34">
-        <v>0.09571603313870627</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,34 +1755,31 @@
         <v>43</v>
       </c>
       <c r="B35">
+        <v>-0.997381612243827</v>
+      </c>
+      <c r="C35">
         <v>0.843878846837067</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>-0.2904320356865384</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.2906904744912018</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.5950006915036566</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.4377872768764654</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>0.2248248956939932</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>-0.4879732710742577</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>-0.1723526613236226</v>
-      </c>
-      <c r="J35">
-        <v>0.3120345994928548</v>
-      </c>
-      <c r="K35">
-        <v>0.3384986279186462</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1790,34 +1787,28 @@
         <v>44</v>
       </c>
       <c r="B36">
+        <v>0.6297528009289777</v>
+      </c>
+      <c r="C36">
         <v>-0.5045580815946278</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.07656442858311237</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.3808746455955672</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>0.223661230968376</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.01069884978590381</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>-0.7020993169823471</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>-0.386478707231712</v>
-      </c>
-      <c r="I36">
-        <v>0.0979085535847654</v>
-      </c>
-      <c r="J36">
-        <v>0.1243725820105568</v>
-      </c>
-      <c r="K36">
-        <v>-0.13579728669382</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1825,34 +1816,25 @@
         <v>45</v>
       </c>
       <c r="B37">
+        <v>-0.5111269933422673</v>
+      </c>
+      <c r="C37">
         <v>0.06999551683547289</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.3743057338479278</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.2170923192207365</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>0.004129938038264339</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>-0.7086682287299866</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>-0.3930476189793515</v>
-      </c>
-      <c r="H37">
-        <v>0.09133964183712592</v>
-      </c>
-      <c r="I37">
-        <v>0.1178036702629173</v>
-      </c>
-      <c r="J37">
-        <v>-0.1423661984414595</v>
-      </c>
-      <c r="K37">
-        <v>0.05853221906599718</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1860,34 +1842,22 @@
         <v>46</v>
       </c>
       <c r="B38">
+        <v>0.05188326581769888</v>
+      </c>
+      <c r="C38">
         <v>0.3561934828301537</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.1989800682029625</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>-0.01398231297950968</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>-0.7267804797477606</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>-0.4111598699971255</v>
-      </c>
-      <c r="G38">
-        <v>0.07322739081935191</v>
-      </c>
-      <c r="H38">
-        <v>0.09969141924514331</v>
-      </c>
-      <c r="I38">
-        <v>-0.1604784494592335</v>
-      </c>
-      <c r="J38">
-        <v>0.04041996804822316</v>
-      </c>
-      <c r="K38">
-        <v>-0.4254664103094231</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1895,34 +1865,19 @@
         <v>47</v>
       </c>
       <c r="B39">
+        <v>0.3257624611289082</v>
+      </c>
+      <c r="C39">
         <v>0.168549046501717</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>-0.04441333468075517</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>-0.7572115014490061</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>-0.441590891698371</v>
-      </c>
-      <c r="F39">
-        <v>0.04279636911810641</v>
-      </c>
-      <c r="G39">
-        <v>0.06926039754389782</v>
-      </c>
-      <c r="H39">
-        <v>-0.190909471160479</v>
-      </c>
-      <c r="I39">
-        <v>0.009988946346977667</v>
-      </c>
-      <c r="J39">
-        <v>-0.4558974320106686</v>
-      </c>
-      <c r="K39">
-        <v>-0.06340594705167626</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1930,34 +1885,16 @@
         <v>48</v>
       </c>
       <c r="B40">
+        <v>0.06427038796443621</v>
+      </c>
+      <c r="C40">
         <v>-0.148691993218036</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>-0.8614901599862869</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>-0.5458695502356519</v>
-      </c>
-      <c r="E40">
-        <v>-0.06148228941917439</v>
-      </c>
-      <c r="F40">
-        <v>-0.03501826099338298</v>
-      </c>
-      <c r="G40">
-        <v>-0.2951881296977598</v>
-      </c>
-      <c r="H40">
-        <v>-0.09428971219030313</v>
-      </c>
-      <c r="I40">
-        <v>-0.5601760905479494</v>
-      </c>
-      <c r="J40">
-        <v>-0.1676846055889571</v>
-      </c>
-      <c r="K40">
-        <v>-0.2172369811051383</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1965,34 +1902,13 @@
         <v>49</v>
       </c>
       <c r="B41">
+        <v>0.01260424490021116</v>
+      </c>
+      <c r="C41">
         <v>-0.7001939218680397</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>-0.3845733121174047</v>
-      </c>
-      <c r="D41">
-        <v>0.09981394869907274</v>
-      </c>
-      <c r="E41">
-        <v>0.1262779771248642</v>
-      </c>
-      <c r="F41">
-        <v>-0.1338918915795126</v>
-      </c>
-      <c r="G41">
-        <v>0.067006525927944</v>
-      </c>
-      <c r="H41">
-        <v>-0.3988798524297023</v>
-      </c>
-      <c r="I41">
-        <v>-0.006388367470709932</v>
-      </c>
-      <c r="J41">
-        <v>-0.05594074298689113</v>
-      </c>
-      <c r="K41">
-        <v>0.2611305445234486</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2000,34 +1916,10 @@
         <v>50</v>
       </c>
       <c r="B42">
+        <v>-0.3689141051912146</v>
+      </c>
+      <c r="C42">
         <v>-0.0532934954405796</v>
-      </c>
-      <c r="C42">
-        <v>0.4310937653758978</v>
-      </c>
-      <c r="D42">
-        <v>0.4575577938016893</v>
-      </c>
-      <c r="E42">
-        <v>0.1973879250973124</v>
-      </c>
-      <c r="F42">
-        <v>0.3982863426047691</v>
-      </c>
-      <c r="G42">
-        <v>-0.06760003575287715</v>
-      </c>
-      <c r="H42">
-        <v>0.3248914492061151</v>
-      </c>
-      <c r="I42">
-        <v>0.2753390736899339</v>
-      </c>
-      <c r="J42">
-        <v>0.5924103612002738</v>
-      </c>
-      <c r="K42">
-        <v>0.4677305905761725</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2035,217 +1927,55 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.05953170440083436</v>
-      </c>
-      <c r="C43">
-        <v>0.08599573282662576</v>
-      </c>
-      <c r="D43">
-        <v>-0.174174135877751</v>
-      </c>
-      <c r="E43">
-        <v>0.02672428162970562</v>
-      </c>
-      <c r="F43">
-        <v>-0.4391620967279406</v>
-      </c>
-      <c r="G43">
-        <v>-0.04667061176894832</v>
-      </c>
-      <c r="H43">
-        <v>-0.09622298728512951</v>
-      </c>
-      <c r="I43">
-        <v>0.2208483002252103</v>
-      </c>
-      <c r="J43">
-        <v>0.09616852960110905</v>
-      </c>
-      <c r="K43">
-        <v>0.05233567489532296</v>
+        <v>-0.424855556415643</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44">
-        <v>0.027557006744978</v>
-      </c>
-      <c r="C44">
-        <v>-0.2326128619593988</v>
-      </c>
-      <c r="D44">
-        <v>-0.03171444445194214</v>
-      </c>
-      <c r="E44">
-        <v>-0.4976008228095884</v>
-      </c>
-      <c r="F44">
-        <v>-0.1051093378505961</v>
-      </c>
-      <c r="G44">
-        <v>-0.1546617133667773</v>
-      </c>
-      <c r="H44">
-        <v>0.1624095741435625</v>
-      </c>
-      <c r="I44">
-        <v>0.0377298035194613</v>
-      </c>
-      <c r="J44">
-        <v>-0.006103051186324801</v>
-      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45">
-        <v>-0.185259264801978</v>
-      </c>
-      <c r="C45">
-        <v>0.01563915270547871</v>
-      </c>
-      <c r="D45">
-        <v>-0.4502472256521675</v>
-      </c>
-      <c r="E45">
-        <v>-0.05775574069317523</v>
-      </c>
-      <c r="F45">
-        <v>-0.1073081162093564</v>
-      </c>
-      <c r="G45">
-        <v>0.2097631713009834</v>
-      </c>
-      <c r="H45">
-        <v>0.08508340067688215</v>
-      </c>
-      <c r="I45">
-        <v>0.04125054597109605</v>
-      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46">
-        <v>0.1016561395759164</v>
-      </c>
-      <c r="C46">
-        <v>-0.3642302387817298</v>
-      </c>
-      <c r="D46">
-        <v>0.02826124617726248</v>
-      </c>
-      <c r="E46">
-        <v>-0.02129112933891871</v>
-      </c>
-      <c r="F46">
-        <v>0.2957801581714211</v>
-      </c>
-      <c r="G46">
-        <v>0.1711003875473198</v>
-      </c>
-      <c r="H46">
-        <v>0.1272675328415337</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47">
-        <v>-0.3543200805324755</v>
-      </c>
-      <c r="C47">
-        <v>0.0381714044265168</v>
-      </c>
-      <c r="D47">
-        <v>-0.01138097108966439</v>
-      </c>
-      <c r="E47">
-        <v>0.3056903164206754</v>
-      </c>
-      <c r="F47">
-        <v>0.1810105457965742</v>
-      </c>
-      <c r="G47">
-        <v>0.1371776910907881</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B48">
-        <v>0.1247600422622814</v>
-      </c>
-      <c r="C48">
-        <v>0.07520766674610024</v>
-      </c>
-      <c r="D48">
-        <v>0.39227895425644</v>
-      </c>
-      <c r="E48">
-        <v>0.2675991836323388</v>
-      </c>
-      <c r="F48">
-        <v>0.2237663289265527</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B49">
-        <v>0.015958518250201</v>
-      </c>
-      <c r="C49">
-        <v>0.3330298057605408</v>
-      </c>
-      <c r="D49">
-        <v>0.2083500351364396</v>
-      </c>
-      <c r="E49">
-        <v>0.1645171804306535</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B50">
-        <v>0.2879850433121589</v>
-      </c>
-      <c r="C50">
-        <v>0.1633052726880577</v>
-      </c>
-      <c r="D50">
-        <v>0.1194724179822716</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B51">
-        <v>0.0315981439370237</v>
-      </c>
-      <c r="C51">
-        <v>-0.0122347107687624</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B52">
-        <v>0.05023326629364772</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/TRDBAL/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -1397,7 +1397,7 @@
         <v>2.83</v>
       </c>
       <c r="K24">
-        <v>-2.00040224812923</v>
+        <v>-3.87</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1429,10 +1429,10 @@
         <v>2.84</v>
       </c>
       <c r="J25">
-        <v>-1.99040224812923</v>
+        <v>-3.86</v>
       </c>
       <c r="K25">
-        <v>-0.3939050167294337</v>
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1461,13 +1461,13 @@
         <v>2.76</v>
       </c>
       <c r="I26">
-        <v>-2.07040224812923</v>
+        <v>-3.94</v>
       </c>
       <c r="J26">
-        <v>-0.4739050167294337</v>
+        <v>-0.64</v>
       </c>
       <c r="K26">
-        <v>-1.237090680270919</v>
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1493,16 +1493,16 @@
         <v>2.73</v>
       </c>
       <c r="H27">
-        <v>-2.10040224812923</v>
+        <v>-3.97</v>
       </c>
       <c r="I27">
-        <v>-0.5039050167294338</v>
+        <v>-0.67</v>
       </c>
       <c r="J27">
-        <v>-1.267090680270919</v>
+        <v>0.5299999999999999</v>
       </c>
       <c r="K27">
-        <v>0.5741697788099751</v>
+        <v>0.5299999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1525,19 +1525,19 @@
         <v>2.79</v>
       </c>
       <c r="G28">
-        <v>-2.04040224812923</v>
+        <v>-3.91</v>
       </c>
       <c r="H28">
-        <v>-0.4439050167294337</v>
+        <v>-0.61</v>
       </c>
       <c r="I28">
-        <v>-1.207090680270919</v>
+        <v>0.59</v>
       </c>
       <c r="J28">
-        <v>0.6341697788099752</v>
+        <v>0.59</v>
       </c>
       <c r="K28">
-        <v>-0.5001411037136303</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1557,22 +1557,22 @@
         <v>2.77</v>
       </c>
       <c r="F29">
-        <v>-2.06040224812923</v>
+        <v>-3.93</v>
       </c>
       <c r="G29">
-        <v>-0.4639050167294337</v>
+        <v>-0.63</v>
       </c>
       <c r="H29">
-        <v>-1.227090680270919</v>
+        <v>0.57</v>
       </c>
       <c r="I29">
-        <v>0.6141697788099751</v>
+        <v>0.57</v>
       </c>
       <c r="J29">
-        <v>-0.5201411037136303</v>
+        <v>0.17</v>
       </c>
       <c r="K29">
-        <v>0.06098140646410989</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1589,25 +1589,25 @@
         <v>2.75</v>
       </c>
       <c r="E30">
-        <v>-2.08040224812923</v>
+        <v>-3.95</v>
       </c>
       <c r="F30">
-        <v>-0.4839050167294337</v>
+        <v>-0.65</v>
       </c>
       <c r="G30">
-        <v>-1.247090680270919</v>
+        <v>0.5499999999999999</v>
       </c>
       <c r="H30">
-        <v>0.5941697788099751</v>
+        <v>0.5499999999999999</v>
       </c>
       <c r="I30">
-        <v>-0.5401411037136303</v>
+        <v>0.15</v>
       </c>
       <c r="J30">
-        <v>0.04098140646410987</v>
+        <v>-0.25</v>
       </c>
       <c r="K30">
-        <v>0.3452916234765647</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1621,28 +1621,28 @@
         <v>2.76</v>
       </c>
       <c r="D31">
-        <v>-2.07040224812923</v>
+        <v>-3.94</v>
       </c>
       <c r="E31">
-        <v>-0.4739050167294337</v>
+        <v>-0.64</v>
       </c>
       <c r="F31">
-        <v>-1.237090680270919</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="G31">
-        <v>0.6041697788099751</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="H31">
-        <v>-0.5301411037136303</v>
+        <v>0.16</v>
       </c>
       <c r="I31">
-        <v>0.05098140646410989</v>
+        <v>-0.24</v>
       </c>
       <c r="J31">
-        <v>0.3552916234765647</v>
+        <v>1.36</v>
       </c>
       <c r="K31">
-        <v>0.1980782088493735</v>
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1653,31 +1653,31 @@
         <v>2.65</v>
       </c>
       <c r="C32">
-        <v>-2.18040224812923</v>
+        <v>-4.05</v>
       </c>
       <c r="D32">
-        <v>-0.5839050167294337</v>
+        <v>-0.75</v>
       </c>
       <c r="E32">
-        <v>-1.347090680270919</v>
+        <v>0.45</v>
       </c>
       <c r="F32">
-        <v>0.4941697788099751</v>
+        <v>0.45</v>
       </c>
       <c r="G32">
-        <v>-0.6401411037136303</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="H32">
-        <v>-0.05901859353589012</v>
+        <v>-0.35</v>
       </c>
       <c r="I32">
-        <v>0.2452916234765647</v>
+        <v>1.25</v>
       </c>
       <c r="J32">
-        <v>0.08807820884937351</v>
+        <v>0.45</v>
       </c>
       <c r="K32">
-        <v>-0.1248841723330987</v>
+        <v>-0.04999999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-2.307362023316307</v>
+        <v>-4.38</v>
       </c>
       <c r="C33">
-        <v>-0.7108647919165108</v>
+        <v>-1.08</v>
       </c>
       <c r="D33">
-        <v>-1.474050455457996</v>
+        <v>0.12</v>
       </c>
       <c r="E33">
-        <v>0.3672100036228982</v>
+        <v>0.12</v>
       </c>
       <c r="F33">
-        <v>-0.7671008789007072</v>
+        <v>-0.28</v>
       </c>
       <c r="G33">
-        <v>-0.1859783687229671</v>
+        <v>-0.6799999999999999</v>
       </c>
       <c r="H33">
-        <v>0.1183318482894877</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="I33">
-        <v>-0.03888156633770348</v>
+        <v>0.12</v>
       </c>
       <c r="J33">
-        <v>-0.2518439475201757</v>
+        <v>-0.38</v>
       </c>
       <c r="K33">
-        <v>-0.9646421142884265</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.4505145150564904</v>
+        <v>-0.7</v>
       </c>
       <c r="C34">
-        <v>-1.213700178597976</v>
+        <v>0.5</v>
       </c>
       <c r="D34">
-        <v>0.6275602804829186</v>
+        <v>0.5</v>
       </c>
       <c r="E34">
-        <v>-0.5067506020406869</v>
+        <v>0.1</v>
       </c>
       <c r="F34">
-        <v>0.07437190813705324</v>
+        <v>-0.3</v>
       </c>
       <c r="G34">
-        <v>0.3786821251495081</v>
+        <v>1.3</v>
       </c>
       <c r="H34">
-        <v>0.2214687105223169</v>
+        <v>0.5</v>
       </c>
       <c r="I34">
-        <v>0.00850632933984468</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>-0.7042918374284062</v>
+        <v>-0.2</v>
       </c>
       <c r="K34">
-        <v>-0.3886712276777712</v>
+        <v>-0.7999999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,31 +1755,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.997381612243827</v>
+        <v>0.61</v>
       </c>
       <c r="C35">
-        <v>0.843878846837067</v>
+        <v>0.61</v>
       </c>
       <c r="D35">
-        <v>-0.2904320356865384</v>
+        <v>0.21</v>
       </c>
       <c r="E35">
-        <v>0.2906904744912018</v>
+        <v>-0.19</v>
       </c>
       <c r="F35">
-        <v>0.5950006915036566</v>
+        <v>1.41</v>
       </c>
       <c r="G35">
-        <v>0.4377872768764654</v>
+        <v>0.61</v>
       </c>
       <c r="H35">
-        <v>0.2248248956939932</v>
+        <v>0.11</v>
       </c>
       <c r="I35">
-        <v>-0.4879732710742577</v>
+        <v>-0.08999999999999997</v>
       </c>
       <c r="J35">
-        <v>-0.1723526613236226</v>
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="K35">
+        <v>0.61</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1787,28 +1790,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0.6297528009289777</v>
+        <v>0.63</v>
       </c>
       <c r="C36">
-        <v>-0.5045580815946278</v>
+        <v>0.23</v>
       </c>
       <c r="D36">
-        <v>0.07656442858311237</v>
+        <v>-0.17</v>
       </c>
       <c r="E36">
-        <v>0.3808746455955672</v>
+        <v>1.43</v>
       </c>
       <c r="F36">
-        <v>0.223661230968376</v>
+        <v>0.63</v>
       </c>
       <c r="G36">
-        <v>0.01069884978590381</v>
+        <v>0.13</v>
       </c>
       <c r="H36">
-        <v>-0.7020993169823471</v>
+        <v>-0.07000000000000002</v>
       </c>
       <c r="I36">
-        <v>-0.386478707231712</v>
+        <v>-0.6699999999999999</v>
+      </c>
+      <c r="J36">
+        <v>0.63</v>
+      </c>
+      <c r="K36">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1816,25 +1825,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-0.5111269933422673</v>
+        <v>0.15</v>
       </c>
       <c r="C37">
-        <v>0.06999551683547289</v>
+        <v>-0.25</v>
       </c>
       <c r="D37">
-        <v>0.3743057338479278</v>
+        <v>1.35</v>
       </c>
       <c r="E37">
-        <v>0.2170923192207365</v>
+        <v>0.55</v>
       </c>
       <c r="F37">
-        <v>0.004129938038264339</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="G37">
-        <v>-0.7086682287299866</v>
+        <v>-0.15</v>
       </c>
       <c r="H37">
-        <v>-0.3930476189793515</v>
+        <v>-0.75</v>
+      </c>
+      <c r="I37">
+        <v>0.55</v>
+      </c>
+      <c r="J37">
+        <v>-0.25</v>
+      </c>
+      <c r="K37">
+        <v>-0.04999999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1842,22 +1860,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0.05188326581769888</v>
+        <v>-0.28</v>
       </c>
       <c r="C38">
-        <v>0.3561934828301537</v>
+        <v>1.32</v>
       </c>
       <c r="D38">
-        <v>0.1989800682029625</v>
+        <v>0.5199999999999999</v>
       </c>
       <c r="E38">
-        <v>-0.01398231297950968</v>
+        <v>0.01999999999999998</v>
       </c>
       <c r="F38">
-        <v>-0.7267804797477606</v>
+        <v>-0.18</v>
       </c>
       <c r="G38">
-        <v>-0.4111598699971255</v>
+        <v>-0.78</v>
+      </c>
+      <c r="H38">
+        <v>0.5199999999999999</v>
+      </c>
+      <c r="I38">
+        <v>-0.28</v>
+      </c>
+      <c r="J38">
+        <v>-0.08000000000000003</v>
+      </c>
+      <c r="K38">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1865,19 +1895,34 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0.3257624611289082</v>
+        <v>1.45</v>
       </c>
       <c r="C39">
-        <v>0.168549046501717</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="D39">
-        <v>-0.04441333468075517</v>
+        <v>0.15</v>
       </c>
       <c r="E39">
-        <v>-0.7572115014490061</v>
+        <v>-0.05000000000000002</v>
       </c>
       <c r="F39">
-        <v>-0.441590891698371</v>
+        <v>-0.65</v>
+      </c>
+      <c r="G39">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="H39">
+        <v>-0.15</v>
+      </c>
+      <c r="I39">
+        <v>0.04999999999999998</v>
+      </c>
+      <c r="J39">
+        <v>-0.25</v>
+      </c>
+      <c r="K39">
+        <v>0.15</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1885,16 +1930,34 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0.06427038796443621</v>
+        <v>0.41</v>
       </c>
       <c r="C40">
-        <v>-0.148691993218036</v>
+        <v>-0.09</v>
       </c>
       <c r="D40">
-        <v>-0.8614901599862869</v>
+        <v>-0.29</v>
       </c>
       <c r="E40">
-        <v>-0.5458695502356519</v>
+        <v>-0.8899999999999999</v>
+      </c>
+      <c r="F40">
+        <v>0.41</v>
+      </c>
+      <c r="G40">
+        <v>-0.39</v>
+      </c>
+      <c r="H40">
+        <v>-0.19</v>
+      </c>
+      <c r="I40">
+        <v>-0.49</v>
+      </c>
+      <c r="J40">
+        <v>-0.09</v>
+      </c>
+      <c r="K40">
+        <v>0.71</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1902,13 +1965,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0.01260424490021116</v>
+        <v>-0.01999999999999999</v>
       </c>
       <c r="C41">
-        <v>-0.7001939218680397</v>
+        <v>-0.22</v>
       </c>
       <c r="D41">
-        <v>-0.3845733121174047</v>
+        <v>-0.82</v>
+      </c>
+      <c r="E41">
+        <v>0.48</v>
+      </c>
+      <c r="F41">
+        <v>-0.32</v>
+      </c>
+      <c r="G41">
+        <v>-0.12</v>
+      </c>
+      <c r="H41">
+        <v>-0.42</v>
+      </c>
+      <c r="I41">
+        <v>-0.01999999999999999</v>
+      </c>
+      <c r="J41">
+        <v>0.78</v>
+      </c>
+      <c r="K41">
+        <v>1.08</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1916,10 +2000,34 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>-0.3689141051912146</v>
+        <v>-0.09000000000000004</v>
       </c>
       <c r="C42">
-        <v>-0.0532934954405796</v>
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="D42">
+        <v>0.61</v>
+      </c>
+      <c r="E42">
+        <v>-0.1900000000000001</v>
+      </c>
+      <c r="F42">
+        <v>0.009999999999999962</v>
+      </c>
+      <c r="G42">
+        <v>-0.29</v>
+      </c>
+      <c r="H42">
+        <v>0.11</v>
+      </c>
+      <c r="I42">
+        <v>0.91</v>
+      </c>
+      <c r="J42">
+        <v>1.21</v>
+      </c>
+      <c r="K42">
+        <v>-0.89</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1927,55 +2035,217 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.424855556415643</v>
+        <v>-0.41</v>
+      </c>
+      <c r="C43">
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="D43">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="E43">
+        <v>0.29</v>
+      </c>
+      <c r="F43">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="G43">
+        <v>0.39</v>
+      </c>
+      <c r="H43">
+        <v>1.19</v>
+      </c>
+      <c r="I43">
+        <v>1.49</v>
+      </c>
+      <c r="J43">
+        <v>-0.6100000000000001</v>
+      </c>
+      <c r="K43">
+        <v>0.99</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B44">
+        <v>0.57</v>
+      </c>
+      <c r="C44">
+        <v>-0.23</v>
+      </c>
+      <c r="D44">
+        <v>-0.03000000000000001</v>
+      </c>
+      <c r="E44">
+        <v>-0.33</v>
+      </c>
+      <c r="F44">
+        <v>0.06999999999999999</v>
+      </c>
+      <c r="G44">
+        <v>0.87</v>
+      </c>
+      <c r="H44">
+        <v>1.17</v>
+      </c>
+      <c r="I44">
+        <v>-0.93</v>
+      </c>
+      <c r="J44">
+        <v>0.6699999999999999</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B45">
+        <v>-0.34</v>
+      </c>
+      <c r="C45">
+        <v>-0.14</v>
+      </c>
+      <c r="D45">
+        <v>-0.44</v>
+      </c>
+      <c r="E45">
+        <v>-0.04000000000000001</v>
+      </c>
+      <c r="F45">
+        <v>0.76</v>
+      </c>
+      <c r="G45">
+        <v>1.06</v>
+      </c>
+      <c r="H45">
+        <v>-1.04</v>
+      </c>
+      <c r="I45">
+        <v>0.5599999999999999</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B46">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="C46">
+        <v>-0.31</v>
+      </c>
+      <c r="D46">
+        <v>0.09</v>
+      </c>
+      <c r="E46">
+        <v>0.89</v>
+      </c>
+      <c r="F46">
+        <v>1.19</v>
+      </c>
+      <c r="G46">
+        <v>-0.91</v>
+      </c>
+      <c r="H46">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B47">
+        <v>-0.27</v>
+      </c>
+      <c r="C47">
+        <v>0.13</v>
+      </c>
+      <c r="D47">
+        <v>0.93</v>
+      </c>
+      <c r="E47">
+        <v>1.23</v>
+      </c>
+      <c r="F47">
+        <v>-0.87</v>
+      </c>
+      <c r="G47">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>0.19</v>
+      </c>
+      <c r="C48">
+        <v>0.99</v>
+      </c>
+      <c r="D48">
+        <v>1.29</v>
+      </c>
+      <c r="E48">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="F48">
+        <v>0.7899999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>0.9600000000000001</v>
+      </c>
+      <c r="C49">
+        <v>1.26</v>
+      </c>
+      <c r="D49">
+        <v>-0.84</v>
+      </c>
+      <c r="E49">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>1.14</v>
+      </c>
+      <c r="C50">
+        <v>-0.9600000000000001</v>
+      </c>
+      <c r="D50">
+        <v>0.6399999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>-1.03</v>
+      </c>
+      <c r="C51">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/TRDBAL/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -614,21 +614,6 @@
       <c r="F2">
         <v>2.22</v>
       </c>
-      <c r="G2">
-        <v>2.388616218514021</v>
-      </c>
-      <c r="H2">
-        <v>-1.68</v>
-      </c>
-      <c r="I2">
-        <v>0.72</v>
-      </c>
-      <c r="J2">
-        <v>-1.38</v>
-      </c>
-      <c r="K2">
-        <v>1.32</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -655,15 +640,6 @@
       <c r="H3">
         <v>-1.28</v>
       </c>
-      <c r="I3">
-        <v>1.42</v>
-      </c>
-      <c r="J3">
-        <v>-0.48</v>
-      </c>
-      <c r="K3">
-        <v>0.05037784237159432</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -684,21 +660,6 @@
       <c r="F4">
         <v>-1.44</v>
       </c>
-      <c r="G4">
-        <v>1.26</v>
-      </c>
-      <c r="H4">
-        <v>-0.64</v>
-      </c>
-      <c r="I4">
-        <v>-0.1096221576284057</v>
-      </c>
-      <c r="J4">
-        <v>-0.34</v>
-      </c>
-      <c r="K4">
-        <v>-0.34</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -725,15 +686,6 @@
       <c r="H5">
         <v>-0.8068616218514021</v>
       </c>
-      <c r="I5">
-        <v>-0.8068616218514021</v>
-      </c>
-      <c r="J5">
-        <v>-0.4068616218514022</v>
-      </c>
-      <c r="K5">
-        <v>-0.406861621851402</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -754,21 +706,6 @@
       <c r="F6">
         <v>-0.7499999999999999</v>
       </c>
-      <c r="G6">
-        <v>-0.7499999999999999</v>
-      </c>
-      <c r="H6">
-        <v>-0.35</v>
-      </c>
-      <c r="I6">
-        <v>-0.3499999999999998</v>
-      </c>
-      <c r="J6">
-        <v>0.1500000000000001</v>
-      </c>
-      <c r="K6">
-        <v>-1.15</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -795,15 +732,6 @@
       <c r="H7">
         <v>0.09000000000000002</v>
       </c>
-      <c r="I7">
-        <v>-1.21</v>
-      </c>
-      <c r="J7">
-        <v>-1.01</v>
-      </c>
-      <c r="K7">
-        <v>-0.61</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -824,21 +752,6 @@
       <c r="F8">
         <v>0.1869622157628405</v>
       </c>
-      <c r="G8">
-        <v>-1.113037784237159</v>
-      </c>
-      <c r="H8">
-        <v>-0.9130377842371594</v>
-      </c>
-      <c r="I8">
-        <v>-0.5130377842371595</v>
-      </c>
-      <c r="J8">
-        <v>0.4869622157628406</v>
-      </c>
-      <c r="K8">
-        <v>-0.3130377842371594</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -865,15 +778,6 @@
       <c r="H9">
         <v>0.66</v>
       </c>
-      <c r="I9">
-        <v>-0.14</v>
-      </c>
-      <c r="J9">
-        <v>-0.3399999999999999</v>
-      </c>
-      <c r="K9">
-        <v>0.36</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -894,21 +798,6 @@
       <c r="F10">
         <v>1.09</v>
       </c>
-      <c r="G10">
-        <v>0.29</v>
-      </c>
-      <c r="H10">
-        <v>0.09000000000000014</v>
-      </c>
-      <c r="I10">
-        <v>0.79</v>
-      </c>
-      <c r="J10">
-        <v>-0.3100000000000001</v>
-      </c>
-      <c r="K10">
-        <v>1.29</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -935,15 +824,6 @@
       <c r="H11">
         <v>-0.42</v>
       </c>
-      <c r="I11">
-        <v>1.18</v>
-      </c>
-      <c r="J11">
-        <v>0.28</v>
-      </c>
-      <c r="K11">
-        <v>0.07999999999999993</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -964,21 +844,6 @@
       <c r="F12">
         <v>-0.3900000000000002</v>
       </c>
-      <c r="G12">
-        <v>1.21</v>
-      </c>
-      <c r="H12">
-        <v>0.3099999999999999</v>
-      </c>
-      <c r="I12">
-        <v>0.1099999999999998</v>
-      </c>
-      <c r="J12">
-        <v>0.6099999999999999</v>
-      </c>
-      <c r="K12">
-        <v>0.5099999999999999</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -1005,15 +870,6 @@
       <c r="H13">
         <v>0.42</v>
       </c>
-      <c r="I13">
-        <v>0.32</v>
-      </c>
-      <c r="J13">
-        <v>-0.48</v>
-      </c>
-      <c r="K13">
-        <v>0.52</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -1034,21 +890,6 @@
       <c r="F14">
         <v>0.33</v>
       </c>
-      <c r="G14">
-        <v>0.23</v>
-      </c>
-      <c r="H14">
-        <v>-0.57</v>
-      </c>
-      <c r="I14">
-        <v>0.43</v>
-      </c>
-      <c r="J14">
-        <v>0.53</v>
-      </c>
-      <c r="K14">
-        <v>0.13</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -1075,15 +916,6 @@
       <c r="H15">
         <v>0.55</v>
       </c>
-      <c r="I15">
-        <v>0.15</v>
-      </c>
-      <c r="J15">
-        <v>-0.45</v>
-      </c>
-      <c r="K15">
-        <v>0.35</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1104,21 +936,6 @@
       <c r="F16">
         <v>0.52</v>
       </c>
-      <c r="G16">
-        <v>0.12</v>
-      </c>
-      <c r="H16">
-        <v>-0.48</v>
-      </c>
-      <c r="I16">
-        <v>0.32</v>
-      </c>
-      <c r="J16">
-        <v>0.22</v>
-      </c>
-      <c r="K16">
-        <v>-0.38</v>
-      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
@@ -1145,15 +962,6 @@
       <c r="H17">
         <v>0.09000000000000001</v>
       </c>
-      <c r="I17">
-        <v>-0.51</v>
-      </c>
-      <c r="J17">
-        <v>0.29</v>
-      </c>
-      <c r="K17">
-        <v>-0.51</v>
-      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
@@ -1186,9 +994,6 @@
       <c r="J18">
         <v>-0.49</v>
       </c>
-      <c r="K18">
-        <v>0.11</v>
-      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
@@ -1215,15 +1020,6 @@
       <c r="H19">
         <v>-0.49</v>
       </c>
-      <c r="I19">
-        <v>0.11</v>
-      </c>
-      <c r="J19">
-        <v>0.41</v>
-      </c>
-      <c r="K19">
-        <v>1.01</v>
-      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
@@ -1256,9 +1052,6 @@
       <c r="J20">
         <v>-0.03</v>
       </c>
-      <c r="K20">
-        <v>-0.23</v>
-      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
@@ -1285,15 +1078,6 @@
       <c r="H21">
         <v>-0.04</v>
       </c>
-      <c r="I21">
-        <v>-0.24</v>
-      </c>
-      <c r="J21">
-        <v>0.46</v>
-      </c>
-      <c r="K21">
-        <v>-0.54</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
@@ -1326,9 +1110,6 @@
       <c r="J22">
         <v>0.61</v>
       </c>
-      <c r="K22">
-        <v>0.8100000000000001</v>
-      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -1358,12 +1139,6 @@
       <c r="I23">
         <v>0.59</v>
       </c>
-      <c r="J23">
-        <v>0.79</v>
-      </c>
-      <c r="K23">
-        <v>2.79</v>
-      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
@@ -1390,15 +1165,6 @@
       <c r="H24">
         <v>0.63</v>
       </c>
-      <c r="I24">
-        <v>0.8300000000000001</v>
-      </c>
-      <c r="J24">
-        <v>2.83</v>
-      </c>
-      <c r="K24">
-        <v>-3.87</v>
-      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
@@ -1466,9 +1232,6 @@
       <c r="J26">
         <v>-0.64</v>
       </c>
-      <c r="K26">
-        <v>0.5599999999999999</v>
-      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
@@ -1498,12 +1261,6 @@
       <c r="I27">
         <v>-0.67</v>
       </c>
-      <c r="J27">
-        <v>0.5299999999999999</v>
-      </c>
-      <c r="K27">
-        <v>0.5299999999999999</v>
-      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -1530,15 +1287,6 @@
       <c r="H28">
         <v>-0.61</v>
       </c>
-      <c r="I28">
-        <v>0.59</v>
-      </c>
-      <c r="J28">
-        <v>0.59</v>
-      </c>
-      <c r="K28">
-        <v>0.19</v>
-      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
@@ -1606,9 +1354,6 @@
       <c r="J30">
         <v>-0.25</v>
       </c>
-      <c r="K30">
-        <v>1.35</v>
-      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
@@ -1638,12 +1383,6 @@
       <c r="I31">
         <v>-0.24</v>
       </c>
-      <c r="J31">
-        <v>1.36</v>
-      </c>
-      <c r="K31">
-        <v>0.5599999999999999</v>
-      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
@@ -1670,15 +1409,6 @@
       <c r="H32">
         <v>-0.35</v>
       </c>
-      <c r="I32">
-        <v>1.25</v>
-      </c>
-      <c r="J32">
-        <v>0.45</v>
-      </c>
-      <c r="K32">
-        <v>-0.04999999999999999</v>
-      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
@@ -1746,9 +1476,6 @@
       <c r="J34">
         <v>-0.2</v>
       </c>
-      <c r="K34">
-        <v>-0.7999999999999999</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
@@ -1778,12 +1505,6 @@
       <c r="I35">
         <v>-0.08999999999999997</v>
       </c>
-      <c r="J35">
-        <v>-0.6899999999999999</v>
-      </c>
-      <c r="K35">
-        <v>0.61</v>
-      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
@@ -1810,15 +1531,6 @@
       <c r="H36">
         <v>-0.07000000000000002</v>
       </c>
-      <c r="I36">
-        <v>-0.6699999999999999</v>
-      </c>
-      <c r="J36">
-        <v>0.63</v>
-      </c>
-      <c r="K36">
-        <v>-0.17</v>
-      </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
@@ -1886,9 +1598,6 @@
       <c r="J38">
         <v>-0.08000000000000003</v>
       </c>
-      <c r="K38">
-        <v>-0.38</v>
-      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
@@ -1918,12 +1627,6 @@
       <c r="I39">
         <v>0.04999999999999998</v>
       </c>
-      <c r="J39">
-        <v>-0.25</v>
-      </c>
-      <c r="K39">
-        <v>0.15</v>
-      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
@@ -1950,15 +1653,6 @@
       <c r="H40">
         <v>-0.19</v>
       </c>
-      <c r="I40">
-        <v>-0.49</v>
-      </c>
-      <c r="J40">
-        <v>-0.09</v>
-      </c>
-      <c r="K40">
-        <v>0.71</v>
-      </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
@@ -2026,9 +1720,6 @@
       <c r="J42">
         <v>1.21</v>
       </c>
-      <c r="K42">
-        <v>-0.89</v>
-      </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
@@ -2058,12 +1749,6 @@
       <c r="I43">
         <v>1.49</v>
       </c>
-      <c r="J43">
-        <v>-0.6100000000000001</v>
-      </c>
-      <c r="K43">
-        <v>0.99</v>
-      </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
@@ -2089,12 +1774,6 @@
       </c>
       <c r="H44">
         <v>1.17</v>
-      </c>
-      <c r="I44">
-        <v>-0.93</v>
-      </c>
-      <c r="J44">
-        <v>0.6699999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:11">
